--- a/ocpinfo/Data - Pharmacy.xlsx
+++ b/ocpinfo/Data - Pharmacy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="948" yWindow="0" windowWidth="22092" windowHeight="9492"/>
+    <workbookView xWindow="1896" yWindow="0" windowWidth="22092" windowHeight="9492" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pharmacy" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -265,6 +265,13 @@
       <color theme="0"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -329,10 +336,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -342,11 +350,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -362,23 +365,30 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -597,239 +607,239 @@
   </sheetPr>
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="11" customWidth="1"/>
-    <col min="6" max="11" width="12.6640625" style="11"/>
-    <col min="12" max="12" width="16.77734375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="12.6640625" style="11"/>
+    <col min="1" max="1" width="20.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="8" customWidth="1"/>
+    <col min="6" max="11" width="12.6640625" style="8"/>
+    <col min="12" max="12" width="16.77734375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="12.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="D2" s="19" t="s">
+    <row r="2" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="D2" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="D3" s="25" t="s">
+    <row r="3" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="D3" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="C5" s="14" t="s">
+    <row r="5" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="17" t="s">
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="19" t="s">
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
+    <row r="6" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="22" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="22" t="s">
+      <c r="O6" s="22"/>
+      <c r="P6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="22" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="22" t="s">
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21" t="s">
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="21" t="s">
+      <c r="T7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="U7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="21" t="s">
+      <c r="V7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="W7" s="21" t="s">
+      <c r="W7" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="13" t="s">
+    <row r="8" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -857,7 +867,9 @@
   </sheetPr>
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -873,12 +885,12 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>24</v>
@@ -886,33 +898,33 @@
       <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
       <c r="X2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
       <c r="AC2" s="4" t="s">
         <v>30</v>
       </c>
@@ -950,20 +962,20 @@
       <c r="M3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="7" t="s">
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4" t="s">
         <v>42</v>
@@ -989,7 +1001,7 @@
       <c r="F4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="26" t="s">
         <v>47</v>
       </c>
       <c r="H4" s="4" t="s">
